--- a/DEA 数据包络分析报告.xlsx
+++ b/DEA 数据包络分析报告.xlsx
@@ -91,7 +91,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -152,19 +152,19 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -502,7 +502,7 @@
     <col min="16" max="16" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -530,7 +530,7 @@
       </c>
       <c r="P1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
